--- a/Booper Beats menu.xlsx
+++ b/Booper Beats menu.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\GitHub\Booper-Beats-Front-End\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E26BA4A-1A6A-44AE-B095-6D9B84B933F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01391B1D-F258-4172-B0A2-06C64BDA70A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B74DB0A7-96F1-4DCE-9679-A1267312297F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Database Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="180">
   <si>
     <t>Burger</t>
   </si>
@@ -207,39 +207,18 @@
     <t>turkey</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Item Part</t>
-  </si>
-  <si>
-    <t>ingredient name</t>
-  </si>
-  <si>
-    <t>item part type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pizza </t>
   </si>
   <si>
     <t xml:space="preserve"> *new item</t>
   </si>
   <si>
-    <t>extra cost</t>
-  </si>
-  <si>
-    <t>Coliflower Crust</t>
-  </si>
-  <si>
     <t>Marinara</t>
   </si>
   <si>
     <t>Garlic Butter</t>
   </si>
   <si>
-    <t>Motzerella</t>
-  </si>
-  <si>
     <t>Cheddar</t>
   </si>
   <si>
@@ -340,13 +319,271 @@
   </si>
   <si>
     <t>Burger Toppings</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesame </t>
+  </si>
+  <si>
+    <t>Mozzarella</t>
+  </si>
+  <si>
+    <t>Colliflower Crust</t>
+  </si>
+  <si>
+    <t>Food Type</t>
+  </si>
+  <si>
+    <t>Ingredient Layer</t>
+  </si>
+  <si>
+    <t>Ingredient Type</t>
+  </si>
+  <si>
+    <t>Ingredient Name</t>
+  </si>
+  <si>
+    <t>Extra Cost</t>
+  </si>
+  <si>
+    <t>CustomFoodMenu</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>Special Pizza</t>
+  </si>
+  <si>
+    <t>Meat Lovers</t>
+  </si>
+  <si>
+    <t>Special Burger</t>
+  </si>
+  <si>
+    <t>BLT</t>
+  </si>
+  <si>
+    <t>Custom Item Key</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Desserts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dessert type</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>iced tea</t>
+  </si>
+  <si>
+    <t>earl grey tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - drink types</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - specific items</t>
+  </si>
+  <si>
+    <t>MenuType</t>
+  </si>
+  <si>
+    <t>FoodItemType</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CustomPizza</t>
+  </si>
+  <si>
+    <t>Specific Item</t>
+  </si>
+  <si>
+    <t>Loaded Pizza</t>
+  </si>
+  <si>
+    <t>CustomBurger</t>
+  </si>
+  <si>
+    <t>0 to 5 Toppings</t>
+  </si>
+  <si>
+    <t>Basic Pizza</t>
+  </si>
+  <si>
+    <t>Basic Burger</t>
+  </si>
+  <si>
+    <t>Food Item Key</t>
+  </si>
+  <si>
+    <t>Specialty Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burger </t>
+  </si>
+  <si>
+    <t>Specialty Burger</t>
+  </si>
+  <si>
+    <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>Boba tea</t>
+  </si>
+  <si>
+    <t>Earl Grey Tea</t>
+  </si>
+  <si>
+    <t>Boba Tea</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Root Beer</t>
+  </si>
+  <si>
+    <t>Ginger Ale</t>
+  </si>
+  <si>
+    <t>"Suuuuper!"</t>
+  </si>
+  <si>
+    <t>"heavy on the root"</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Root Beer Float</t>
+  </si>
+  <si>
+    <t>Cola Float</t>
+  </si>
+  <si>
+    <t>Orange Soda</t>
+  </si>
+  <si>
+    <t>Orange Float</t>
+  </si>
+  <si>
+    <t>Lemonade</t>
+  </si>
+  <si>
+    <t>"when gives you lemons"</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Chocolate ice Cream</t>
+  </si>
+  <si>
+    <t>Vanilla Ice Cream</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>Ice Cream sundae</t>
+  </si>
+  <si>
+    <t>Apple Pie</t>
+  </si>
+  <si>
+    <t>Cherry Pie</t>
+  </si>
+  <si>
+    <t>Chocolate Ice Cream</t>
+  </si>
+  <si>
+    <t>Ice Cream Sundae</t>
+  </si>
+  <si>
+    <t>"a certain uncle would be proud"</t>
+  </si>
+  <si>
+    <t>"cold and refreshing"</t>
+  </si>
+  <si>
+    <t>"hot and calming"</t>
+  </si>
+  <si>
+    <t>"How American is it really?"</t>
+  </si>
+  <si>
+    <t>"Love it or Hate it"</t>
+  </si>
+  <si>
+    <t>"Bubble your yum"</t>
+  </si>
+  <si>
+    <t>Fully Stacked Burger</t>
+  </si>
+  <si>
+    <t>ItemPrice Key</t>
+  </si>
+  <si>
+    <t>"Free Refills"</t>
+  </si>
+  <si>
+    <t>"the classic"</t>
+  </si>
+  <si>
+    <t>"the basic"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"the creamsicle" </t>
+  </si>
+  <si>
+    <t>"You heard me, Jimbo. It has pie"</t>
+  </si>
+  <si>
+    <t>"Time for a party"</t>
+  </si>
+  <si>
+    <t>Soda Floats</t>
+  </si>
+  <si>
+    <t>Fruity</t>
+  </si>
+  <si>
+    <t>0  to 3 Toppings</t>
+  </si>
+  <si>
+    <t>6 or more Toppings</t>
+  </si>
+  <si>
+    <t>4 or more Toppings</t>
+  </si>
+  <si>
+    <t>"one of our go-to Burgers"</t>
+  </si>
+  <si>
+    <t>"one of our go-to pizzas"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +597,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,7 +614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -463,11 +708,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -477,6 +805,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,841 +1148,1669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA41ABF3-0487-4688-9D4D-F5921DCCC661}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="I30" workbookViewId="0">
+      <selection activeCell="AB57" sqref="AB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I37" s="5"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="M39" s="21"/>
+      <c r="N39" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="I40" s="9">
+        <v>1</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="C41" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="I41" s="10">
+        <v>2</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="20"/>
+      <c r="N41" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="I42" s="10">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M42" s="20"/>
+      <c r="N42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="10">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="I43" s="10">
+        <v>4</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M43" s="20"/>
+      <c r="N43" s="3">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="M3" s="6" t="s">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="I44" s="10">
+        <v>5</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M44" s="20"/>
+      <c r="N44" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="I45" s="10">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="M45" s="20"/>
+      <c r="N45" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="10">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="I46" s="10">
+        <v>7</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M46" s="20"/>
+      <c r="N46" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="10">
+        <v>8</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="I47" s="10">
+        <v>8</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M47" s="20"/>
+      <c r="N47" s="3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="10">
+        <v>9</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="I48" s="10">
+        <v>9</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M48" s="20"/>
+      <c r="N48" s="3">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="10">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="I49" s="10">
+        <v>10</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M49" s="20"/>
+      <c r="N49" s="3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
+        <v>11</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="I50" s="10">
+        <v>11</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M50" s="20"/>
+      <c r="N50" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="10">
+        <v>12</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="3"/>
+      <c r="I51" s="11">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M51" s="23"/>
+      <c r="N51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="10">
+        <v>13</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="10">
+        <v>14</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="10">
+        <v>15</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="10">
         <v>16</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" t="s">
-        <v>90</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>89</v>
-      </c>
-      <c r="L24" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" t="s">
-        <v>92</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>89</v>
-      </c>
-      <c r="L27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" t="s">
-        <v>95</v>
-      </c>
-      <c r="L29" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>86</v>
-      </c>
-      <c r="K33" t="s">
-        <v>98</v>
-      </c>
-      <c r="L33" t="s">
-        <v>73</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>87</v>
-      </c>
-      <c r="K34" t="s">
-        <v>99</v>
-      </c>
-      <c r="L34" t="s">
-        <v>67</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" t="s">
-        <v>99</v>
-      </c>
-      <c r="L35" t="s">
-        <v>74</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>87</v>
-      </c>
-      <c r="K36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L36" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>100</v>
-      </c>
-      <c r="L37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>100</v>
-      </c>
-      <c r="L38" t="s">
-        <v>77</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>100</v>
-      </c>
-      <c r="L39" t="s">
-        <v>78</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>100</v>
-      </c>
-      <c r="L40" t="s">
-        <v>79</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>100</v>
-      </c>
-      <c r="L41" t="s">
-        <v>80</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L42" t="s">
-        <v>81</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I43" s="4"/>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I44" s="4"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I45" s="4"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I46" s="5"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="2"/>
+      <c r="B55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="10">
+        <v>17</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="10">
+        <v>18</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="10">
+        <v>19</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="10">
+        <v>20</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="10">
+        <v>21</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
+        <v>22</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L42:M42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9FFFB4-F409-4CFB-8257-88DDDAE66FB6}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,9 +2819,14 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" customWidth="1"/>
+    <col min="17" max="17" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1646,8 +2836,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1661,7 +2854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1674,8 +2867,18 @@
       <c r="H3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -1685,8 +2888,26 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1696,54 +2917,108 @@
       <c r="G5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>28</v>
       </c>
